--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H2">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I2">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J2">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.65524088616486</v>
+        <v>0.024183</v>
       </c>
       <c r="N2">
-        <v>2.65524088616486</v>
+        <v>0.072549</v>
       </c>
       <c r="O2">
-        <v>0.003969452870721604</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="P2">
-        <v>0.003969452870721604</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="Q2">
-        <v>400.8463207772151</v>
+        <v>0.003333449208</v>
       </c>
       <c r="R2">
-        <v>400.8463207772151</v>
+        <v>0.030001042872</v>
       </c>
       <c r="S2">
-        <v>0.0001367981957092462</v>
+        <v>1.019912922491851E-09</v>
       </c>
       <c r="T2">
-        <v>0.0001367981957092462</v>
+        <v>1.019912922491851E-09</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H3">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I3">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J3">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.37479198888697</v>
+        <v>2.747657333333333</v>
       </c>
       <c r="N3">
-        <v>5.37479198888697</v>
+        <v>8.242972</v>
       </c>
       <c r="O3">
-        <v>0.008035046311988059</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="P3">
-        <v>0.008035046311988059</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="Q3">
-        <v>811.4011820599934</v>
+        <v>0.3787444139128889</v>
       </c>
       <c r="R3">
-        <v>811.4011820599934</v>
+        <v>3.408699725216</v>
       </c>
       <c r="S3">
-        <v>0.0002769096582623943</v>
+        <v>1.158818682895491E-07</v>
       </c>
       <c r="T3">
-        <v>0.0002769096582623943</v>
+        <v>1.158818682895491E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H4">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I4">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J4">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.71312637602057</v>
+        <v>13.83535066666667</v>
       </c>
       <c r="N4">
-        <v>8.71312637602057</v>
+        <v>41.506052</v>
       </c>
       <c r="O4">
-        <v>0.01302568994265915</v>
+        <v>0.0194847250220969</v>
       </c>
       <c r="P4">
-        <v>0.01302568994265915</v>
+        <v>0.01948472502209691</v>
       </c>
       <c r="Q4">
-        <v>1315.370167917</v>
+        <v>1.907101630161778</v>
       </c>
       <c r="R4">
-        <v>1315.370167917</v>
+        <v>17.163914671456</v>
       </c>
       <c r="S4">
-        <v>0.0004489008788004372</v>
+        <v>5.835029951676622E-07</v>
       </c>
       <c r="T4">
-        <v>0.0004489008788004372</v>
+        <v>5.835029951676623E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H5">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I5">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J5">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>651.767897242905</v>
+        <v>10.453083</v>
       </c>
       <c r="N5">
-        <v>651.767897242905</v>
+        <v>31.359249</v>
       </c>
       <c r="O5">
-        <v>0.9743605426669373</v>
+        <v>0.01472137951507571</v>
       </c>
       <c r="P5">
-        <v>0.9743605426669373</v>
+        <v>0.01472137951507571</v>
       </c>
       <c r="Q5">
-        <v>98393.62031965157</v>
+        <v>1.440880835608</v>
       </c>
       <c r="R5">
-        <v>98393.62031965157</v>
+        <v>12.967927520472</v>
       </c>
       <c r="S5">
-        <v>0.03357912753927929</v>
+        <v>4.408565699698087E-07</v>
       </c>
       <c r="T5">
-        <v>0.03357912753927929</v>
+        <v>4.408565699698088E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H6">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I6">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J6">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.407550840984097</v>
+        <v>682.5043843333333</v>
       </c>
       <c r="N6">
-        <v>0.407550840984097</v>
+        <v>2047.513153</v>
       </c>
       <c r="O6">
-        <v>0.0006092682076939379</v>
+        <v>0.9611906901030149</v>
       </c>
       <c r="P6">
-        <v>0.0006092682076939379</v>
+        <v>0.9611906901030151</v>
       </c>
       <c r="Q6">
-        <v>61.52558737301396</v>
+        <v>94.07822434819822</v>
       </c>
       <c r="R6">
-        <v>61.52558737301396</v>
+        <v>846.704019133784</v>
       </c>
       <c r="S6">
-        <v>2.099704776199684E-05</v>
+        <v>2.878447840379239E-05</v>
       </c>
       <c r="T6">
-        <v>2.099704776199684E-05</v>
+        <v>2.878447840379239E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>367.055801362701</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H7">
-        <v>367.055801362701</v>
+        <v>0.413528</v>
       </c>
       <c r="I7">
-        <v>0.0837930188150723</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J7">
-        <v>0.0837930188150723</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.65524088616486</v>
+        <v>0.496718</v>
       </c>
       <c r="N7">
-        <v>2.65524088616486</v>
+        <v>1.490154</v>
       </c>
       <c r="O7">
-        <v>0.003969452870721604</v>
+        <v>0.0006995423445857436</v>
       </c>
       <c r="P7">
-        <v>0.003969452870721604</v>
+        <v>0.0006995423445857437</v>
       </c>
       <c r="Q7">
-        <v>974.6215712822511</v>
+        <v>0.06846893370133333</v>
       </c>
       <c r="R7">
-        <v>974.6215712822511</v>
+        <v>0.616220403312</v>
       </c>
       <c r="S7">
-        <v>0.0003326124390819182</v>
+        <v>2.094897684465563E-08</v>
       </c>
       <c r="T7">
-        <v>0.0003326124390819182</v>
+        <v>2.094897684465564E-08</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H8">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I8">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J8">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.37479198888697</v>
+        <v>0.024183</v>
       </c>
       <c r="N8">
-        <v>5.37479198888697</v>
+        <v>0.072549</v>
       </c>
       <c r="O8">
-        <v>0.008035046311988059</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="P8">
-        <v>0.008035046311988059</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="Q8">
-        <v>1972.848580638732</v>
+        <v>4.936711912811999</v>
       </c>
       <c r="R8">
-        <v>1972.848580638732</v>
+        <v>44.43040721530799</v>
       </c>
       <c r="S8">
-        <v>0.0006732807868003927</v>
+        <v>1.510452375399272E-06</v>
       </c>
       <c r="T8">
-        <v>0.0006732807868003927</v>
+        <v>1.510452375399272E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H9">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I9">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J9">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.71312637602057</v>
+        <v>2.747657333333333</v>
       </c>
       <c r="N9">
-        <v>8.71312637602057</v>
+        <v>8.242972</v>
       </c>
       <c r="O9">
-        <v>0.01302568994265915</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="P9">
-        <v>0.01302568994265915</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="Q9">
-        <v>3198.203584324717</v>
+        <v>560.9061195795359</v>
       </c>
       <c r="R9">
-        <v>3198.203584324717</v>
+        <v>5048.155076215823</v>
       </c>
       <c r="S9">
-        <v>0.001091461882444536</v>
+        <v>0.0001716166540924022</v>
       </c>
       <c r="T9">
-        <v>0.001091461882444536</v>
+        <v>0.0001716166540924022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H10">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I10">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J10">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>651.767897242905</v>
+        <v>13.83535066666667</v>
       </c>
       <c r="N10">
-        <v>651.767897242905</v>
+        <v>41.506052</v>
       </c>
       <c r="O10">
-        <v>0.9743605426669373</v>
+        <v>0.0194847250220969</v>
       </c>
       <c r="P10">
-        <v>0.9743605426669373</v>
+        <v>0.01948472502209691</v>
       </c>
       <c r="Q10">
-        <v>239235.187824977</v>
+        <v>2824.345219950575</v>
       </c>
       <c r="R10">
-        <v>239235.187824977</v>
+        <v>25419.10697955518</v>
       </c>
       <c r="S10">
-        <v>0.08164461128435473</v>
+        <v>0.0008641458164391748</v>
       </c>
       <c r="T10">
-        <v>0.08164461128435473</v>
+        <v>0.000864145816439175</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H11">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I11">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J11">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.407550840984097</v>
+        <v>10.453083</v>
       </c>
       <c r="N11">
-        <v>0.407550840984097</v>
+        <v>31.359249</v>
       </c>
       <c r="O11">
-        <v>0.0006092682076939379</v>
+        <v>0.01472137951507571</v>
       </c>
       <c r="P11">
-        <v>0.0006092682076939379</v>
+        <v>0.01472137951507571</v>
       </c>
       <c r="Q11">
-        <v>149.5939005334604</v>
+        <v>2133.889896692412</v>
       </c>
       <c r="R11">
-        <v>149.5939005334604</v>
+        <v>19205.0090702317</v>
       </c>
       <c r="S11">
-        <v>5.105242239072352E-05</v>
+        <v>0.0006528918681551399</v>
       </c>
       <c r="T11">
-        <v>5.105242239072352E-05</v>
+        <v>0.00065289186815514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3862.48575446795</v>
+        <v>204.139764</v>
       </c>
       <c r="H12">
-        <v>3862.48575446795</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I12">
-        <v>0.8817442478651144</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J12">
-        <v>0.8817442478651144</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.65524088616486</v>
+        <v>682.5043843333333</v>
       </c>
       <c r="N12">
-        <v>2.65524088616486</v>
+        <v>2047.513153</v>
       </c>
       <c r="O12">
-        <v>0.003969452870721604</v>
+        <v>0.9611906901030149</v>
       </c>
       <c r="P12">
-        <v>0.003969452870721604</v>
+        <v>0.9611906901030151</v>
       </c>
       <c r="Q12">
-        <v>10255.83009749263</v>
+        <v>139326.2839467719</v>
       </c>
       <c r="R12">
-        <v>10255.83009749263</v>
+        <v>1253936.555520948</v>
       </c>
       <c r="S12">
-        <v>0.00350004223593044</v>
+        <v>0.04262872135536124</v>
       </c>
       <c r="T12">
-        <v>0.00350004223593044</v>
+        <v>0.04262872135536125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3862.48575446795</v>
+        <v>204.139764</v>
       </c>
       <c r="H13">
-        <v>3862.48575446795</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I13">
-        <v>0.8817442478651144</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J13">
-        <v>0.8817442478651144</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.37479198888697</v>
+        <v>0.496718</v>
       </c>
       <c r="N13">
-        <v>5.37479198888697</v>
+        <v>1.490154</v>
       </c>
       <c r="O13">
-        <v>0.008035046311988059</v>
+        <v>0.0006995423445857436</v>
       </c>
       <c r="P13">
-        <v>0.008035046311988059</v>
+        <v>0.0006995423445857437</v>
       </c>
       <c r="Q13">
-        <v>20760.05749030438</v>
+        <v>101.399895294552</v>
       </c>
       <c r="R13">
-        <v>20760.05749030438</v>
+        <v>912.5990576509679</v>
       </c>
       <c r="S13">
-        <v>0.007084855866925273</v>
+        <v>3.102464057410477E-05</v>
       </c>
       <c r="T13">
-        <v>0.007084855866925273</v>
+        <v>3.102464057410477E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H14">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I14">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J14">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>8.71312637602057</v>
+        <v>0.024183</v>
       </c>
       <c r="N14">
-        <v>8.71312637602057</v>
+        <v>0.072549</v>
       </c>
       <c r="O14">
-        <v>0.01302568994265915</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="P14">
-        <v>0.01302568994265915</v>
+        <v>3.405761925099762E-05</v>
       </c>
       <c r="Q14">
-        <v>33654.3265042584</v>
+        <v>9.094814640851999</v>
       </c>
       <c r="R14">
-        <v>33654.3265042584</v>
+        <v>81.853331767668</v>
       </c>
       <c r="S14">
-        <v>0.01148532718141418</v>
+        <v>2.782678961362784E-06</v>
       </c>
       <c r="T14">
-        <v>0.01148532718141418</v>
+        <v>2.782678961362784E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H15">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I15">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J15">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>651.767897242905</v>
+        <v>2.747657333333333</v>
       </c>
       <c r="N15">
-        <v>651.767897242905</v>
+        <v>8.242972</v>
       </c>
       <c r="O15">
-        <v>0.9743605426669373</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="P15">
-        <v>0.9743605426669373</v>
+        <v>0.003869605395975608</v>
       </c>
       <c r="Q15">
-        <v>2517444.218320251</v>
+        <v>1033.347150611767</v>
       </c>
       <c r="R15">
-        <v>2517444.218320251</v>
+        <v>9300.124355505905</v>
       </c>
       <c r="S15">
-        <v>0.8591368038433034</v>
+        <v>0.0003161662430013165</v>
       </c>
       <c r="T15">
-        <v>0.8591368038433034</v>
+        <v>0.0003161662430013166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>376.0829773333333</v>
+      </c>
+      <c r="H16">
+        <v>1128.248932</v>
+      </c>
+      <c r="I16">
+        <v>0.08170503466067357</v>
+      </c>
+      <c r="J16">
+        <v>0.08170503466067358</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.83535066666667</v>
+      </c>
+      <c r="N16">
+        <v>41.506052</v>
+      </c>
+      <c r="O16">
+        <v>0.0194847250220969</v>
+      </c>
+      <c r="P16">
+        <v>0.01948472502209691</v>
+      </c>
+      <c r="Q16">
+        <v>5203.239871170717</v>
+      </c>
+      <c r="R16">
+        <v>46829.15884053646</v>
+      </c>
+      <c r="S16">
+        <v>0.001592000133284121</v>
+      </c>
+      <c r="T16">
+        <v>0.001592000133284121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>376.0829773333333</v>
+      </c>
+      <c r="H17">
+        <v>1128.248932</v>
+      </c>
+      <c r="I17">
+        <v>0.08170503466067357</v>
+      </c>
+      <c r="J17">
+        <v>0.08170503466067358</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.453083</v>
+      </c>
+      <c r="N17">
+        <v>31.359249</v>
+      </c>
+      <c r="O17">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="P17">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="Q17">
+        <v>3931.226576952452</v>
+      </c>
+      <c r="R17">
+        <v>35381.03919257207</v>
+      </c>
+      <c r="S17">
+        <v>0.001202810823532191</v>
+      </c>
+      <c r="T17">
+        <v>0.001202810823532191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>376.0829773333333</v>
+      </c>
+      <c r="H18">
+        <v>1128.248932</v>
+      </c>
+      <c r="I18">
+        <v>0.08170503466067357</v>
+      </c>
+      <c r="J18">
+        <v>0.08170503466067358</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>682.5043843333333</v>
+      </c>
+      <c r="N18">
+        <v>2047.513153</v>
+      </c>
+      <c r="O18">
+        <v>0.9611906901030149</v>
+      </c>
+      <c r="P18">
+        <v>0.9611906901030151</v>
+      </c>
+      <c r="Q18">
+        <v>256678.2809031336</v>
+      </c>
+      <c r="R18">
+        <v>2310104.528128203</v>
+      </c>
+      <c r="S18">
+        <v>0.07853411865038358</v>
+      </c>
+      <c r="T18">
+        <v>0.07853411865038361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3862.48575446795</v>
-      </c>
-      <c r="H16">
-        <v>3862.48575446795</v>
-      </c>
-      <c r="I16">
-        <v>0.8817442478651144</v>
-      </c>
-      <c r="J16">
-        <v>0.8817442478651144</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.407550840984097</v>
-      </c>
-      <c r="N16">
-        <v>0.407550840984097</v>
-      </c>
-      <c r="O16">
-        <v>0.0006092682076939379</v>
-      </c>
-      <c r="P16">
-        <v>0.0006092682076939379</v>
-      </c>
-      <c r="Q16">
-        <v>1574.159317522507</v>
-      </c>
-      <c r="R16">
-        <v>1574.159317522507</v>
-      </c>
-      <c r="S16">
-        <v>0.0005372187375412177</v>
-      </c>
-      <c r="T16">
-        <v>0.0005372187375412177</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>376.0829773333333</v>
+      </c>
+      <c r="H19">
+        <v>1128.248932</v>
+      </c>
+      <c r="I19">
+        <v>0.08170503466067357</v>
+      </c>
+      <c r="J19">
+        <v>0.08170503466067358</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.496718</v>
+      </c>
+      <c r="N19">
+        <v>1.490154</v>
+      </c>
+      <c r="O19">
+        <v>0.0006995423445857436</v>
+      </c>
+      <c r="P19">
+        <v>0.0006995423445857437</v>
+      </c>
+      <c r="Q19">
+        <v>186.8071843350587</v>
+      </c>
+      <c r="R19">
+        <v>1681.264659015528</v>
+      </c>
+      <c r="S19">
+        <v>5.715613151098703E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.715613151098705E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H20">
+        <v>12067.582276</v>
+      </c>
+      <c r="I20">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J20">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.024183</v>
+      </c>
+      <c r="N20">
+        <v>0.072549</v>
+      </c>
+      <c r="O20">
+        <v>3.405761925099762E-05</v>
+      </c>
+      <c r="P20">
+        <v>3.405761925099762E-05</v>
+      </c>
+      <c r="Q20">
+        <v>97.27678072683601</v>
+      </c>
+      <c r="R20">
+        <v>875.4910265415241</v>
+      </c>
+      <c r="S20">
+        <v>2.976311907906121E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.976311907906121E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H21">
+        <v>12067.582276</v>
+      </c>
+      <c r="I21">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J21">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.747657333333333</v>
+      </c>
+      <c r="N21">
+        <v>8.242972</v>
+      </c>
+      <c r="O21">
+        <v>0.003869605395975608</v>
+      </c>
+      <c r="P21">
+        <v>0.003869605395975608</v>
+      </c>
+      <c r="Q21">
+        <v>11052.52697875159</v>
+      </c>
+      <c r="R21">
+        <v>99472.74280876428</v>
+      </c>
+      <c r="S21">
+        <v>0.003381666972685596</v>
+      </c>
+      <c r="T21">
+        <v>0.003381666972685596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H22">
+        <v>12067.582276</v>
+      </c>
+      <c r="I22">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J22">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.83535066666667</v>
+      </c>
+      <c r="N22">
+        <v>41.506052</v>
+      </c>
+      <c r="O22">
+        <v>0.0194847250220969</v>
+      </c>
+      <c r="P22">
+        <v>0.01948472502209691</v>
+      </c>
+      <c r="Q22">
+        <v>55653.07749577048</v>
+      </c>
+      <c r="R22">
+        <v>500877.6974619344</v>
+      </c>
+      <c r="S22">
+        <v>0.01702779594725918</v>
+      </c>
+      <c r="T22">
+        <v>0.01702779594725918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H23">
+        <v>12067.582276</v>
+      </c>
+      <c r="I23">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J23">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.453083</v>
+      </c>
+      <c r="N23">
+        <v>31.359249</v>
+      </c>
+      <c r="O23">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="P23">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="Q23">
+        <v>42047.81304678564</v>
+      </c>
+      <c r="R23">
+        <v>378430.3174210707</v>
+      </c>
+      <c r="S23">
+        <v>0.01286508514544557</v>
+      </c>
+      <c r="T23">
+        <v>0.01286508514544558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H24">
+        <v>12067.582276</v>
+      </c>
+      <c r="I24">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J24">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>682.5043843333333</v>
+      </c>
+      <c r="N24">
+        <v>2047.513153</v>
+      </c>
+      <c r="O24">
+        <v>0.9611906901030149</v>
+      </c>
+      <c r="P24">
+        <v>0.9611906901030151</v>
+      </c>
+      <c r="Q24">
+        <v>2745392.603891075</v>
+      </c>
+      <c r="R24">
+        <v>24708533.43501968</v>
+      </c>
+      <c r="S24">
+        <v>0.83998921816542</v>
+      </c>
+      <c r="T24">
+        <v>0.8399892181654202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H25">
+        <v>12067.582276</v>
+      </c>
+      <c r="I25">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J25">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.496718</v>
+      </c>
+      <c r="N25">
+        <v>1.490154</v>
+      </c>
+      <c r="O25">
+        <v>0.0006995423445857436</v>
+      </c>
+      <c r="P25">
+        <v>0.0006995423445857437</v>
+      </c>
+      <c r="Q25">
+        <v>1998.061777656723</v>
+      </c>
+      <c r="R25">
+        <v>17982.55599891051</v>
+      </c>
+      <c r="S25">
+        <v>0.000611333456672585</v>
+      </c>
+      <c r="T25">
+        <v>0.0006113334566725851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.141472</v>
+      </c>
+      <c r="I26">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J26">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.024183</v>
+      </c>
+      <c r="N26">
+        <v>0.072549</v>
+      </c>
+      <c r="O26">
+        <v>3.405761925099762E-05</v>
+      </c>
+      <c r="P26">
+        <v>3.405761925099762E-05</v>
+      </c>
+      <c r="Q26">
+        <v>0.001140405792</v>
+      </c>
+      <c r="R26">
+        <v>0.010263652128</v>
+      </c>
+      <c r="S26">
+        <v>3.489222518687178E-10</v>
+      </c>
+      <c r="T26">
+        <v>3.489222518687178E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.141472</v>
+      </c>
+      <c r="I27">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J27">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.747657333333333</v>
+      </c>
+      <c r="N27">
+        <v>8.242972</v>
+      </c>
+      <c r="O27">
+        <v>0.003869605395975608</v>
+      </c>
+      <c r="P27">
+        <v>0.003869605395975608</v>
+      </c>
+      <c r="Q27">
+        <v>0.1295721927537778</v>
+      </c>
+      <c r="R27">
+        <v>1.166149734784</v>
+      </c>
+      <c r="S27">
+        <v>3.964432800356708E-08</v>
+      </c>
+      <c r="T27">
+        <v>3.964432800356709E-08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.141472</v>
+      </c>
+      <c r="I28">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J28">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>13.83535066666667</v>
+      </c>
+      <c r="N28">
+        <v>41.506052</v>
+      </c>
+      <c r="O28">
+        <v>0.0194847250220969</v>
+      </c>
+      <c r="P28">
+        <v>0.01948472502209691</v>
+      </c>
+      <c r="Q28">
+        <v>0.6524382431715554</v>
+      </c>
+      <c r="R28">
+        <v>5.871944188543999</v>
+      </c>
+      <c r="S28">
+        <v>1.996221192576065E-07</v>
+      </c>
+      <c r="T28">
+        <v>1.996221192576065E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.141472</v>
+      </c>
+      <c r="I29">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J29">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.453083</v>
+      </c>
+      <c r="N29">
+        <v>31.359249</v>
+      </c>
+      <c r="O29">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="P29">
+        <v>0.01472137951507571</v>
+      </c>
+      <c r="Q29">
+        <v>0.4929395193919999</v>
+      </c>
+      <c r="R29">
+        <v>4.436455674527999</v>
+      </c>
+      <c r="S29">
+        <v>1.508213728375558E-07</v>
+      </c>
+      <c r="T29">
+        <v>1.508213728375558E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.141472</v>
+      </c>
+      <c r="I30">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J30">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>682.5043843333333</v>
+      </c>
+      <c r="N30">
+        <v>2047.513153</v>
+      </c>
+      <c r="O30">
+        <v>0.9611906901030149</v>
+      </c>
+      <c r="P30">
+        <v>0.9611906901030151</v>
+      </c>
+      <c r="Q30">
+        <v>32.18508675346844</v>
+      </c>
+      <c r="R30">
+        <v>289.665780781216</v>
+      </c>
+      <c r="S30">
+        <v>9.847453446299444E-06</v>
+      </c>
+      <c r="T30">
+        <v>9.847453446299446E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.141472</v>
+      </c>
+      <c r="I31">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J31">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.496718</v>
+      </c>
+      <c r="N31">
+        <v>1.490154</v>
+      </c>
+      <c r="O31">
+        <v>0.0006995423445857436</v>
+      </c>
+      <c r="P31">
+        <v>0.0006995423445857437</v>
+      </c>
+      <c r="Q31">
+        <v>0.02342389629866666</v>
+      </c>
+      <c r="R31">
+        <v>0.210815066688</v>
+      </c>
+      <c r="S31">
+        <v>7.166851222086827E-09</v>
+      </c>
+      <c r="T31">
+        <v>7.166851222086829E-09</v>
       </c>
     </row>
   </sheetData>
